--- a/data/trans_orig/CAGE_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CAGE_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6288</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2527</v>
+        <v>2340</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13769</v>
+        <v>13557</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01272689502093273</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005114775703986468</v>
+        <v>0.00473606477135992</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02786822646324219</v>
+        <v>0.0274399645183954</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3393</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10056</v>
+        <v>9744</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007257243633011253</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002023224612331153</v>
+        <v>0.002028383784373974</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02151093804879643</v>
+        <v>0.02084337552161391</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>9681</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4729</v>
+        <v>4803</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18185</v>
+        <v>19480</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01006765266062109</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004918310781457271</v>
+        <v>0.004995547402177027</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01891208036278687</v>
+        <v>0.02025894033847657</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>487776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>480295</v>
+        <v>480507</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>491537</v>
+        <v>491724</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9872731049790673</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9721317735367572</v>
+        <v>0.9725600354816043</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9948852242960136</v>
+        <v>0.9952639352286401</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>486</v>
@@ -836,19 +836,19 @@
         <v>464096</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>457433</v>
+        <v>457745</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>466543</v>
+        <v>466541</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9927427563669887</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9784890619512037</v>
+        <v>0.979156624478386</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9979767753876688</v>
+        <v>0.997971616215626</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>979</v>
@@ -857,19 +857,19 @@
         <v>951872</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>943368</v>
+        <v>942073</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>956824</v>
+        <v>956750</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.989932347339379</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9810879196372132</v>
+        <v>0.9797410596615233</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9950816892185428</v>
+        <v>0.995004452597823</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>6307</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2496</v>
+        <v>2822</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13084</v>
+        <v>14163</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00857477879582934</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003393959737809679</v>
+        <v>0.003837021850746232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01778988922555194</v>
+        <v>0.01925675671148587</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9149</v>
+        <v>9780</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004277484808503493</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01462745377429421</v>
+        <v>0.01563497691917318</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -1003,19 +1003,19 @@
         <v>8982</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3947</v>
+        <v>4366</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17624</v>
+        <v>17259</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006599785753880702</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002900167837609071</v>
+        <v>0.003208160550069989</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01294953521166053</v>
+        <v>0.01268135859866746</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>729182</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>722405</v>
+        <v>721326</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>732993</v>
+        <v>732667</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9914252212041706</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.982210110774448</v>
+        <v>0.9807432432885141</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9966060402621904</v>
+        <v>0.9961629781492538</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>589</v>
@@ -1053,7 +1053,7 @@
         <v>622818</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>616345</v>
+        <v>615714</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>625494</v>
@@ -1062,7 +1062,7 @@
         <v>0.9957225151914965</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9853725462257071</v>
+        <v>0.9843650230808265</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>1352000</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1343358</v>
+        <v>1343723</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1357035</v>
+        <v>1356616</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9934002142461194</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9870504647883395</v>
+        <v>0.9873186414013325</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.997099832162391</v>
+        <v>0.99679183944993</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4854</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1772</v>
+        <v>1858</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10713</v>
+        <v>9936</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007600129488696103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002773844083983476</v>
+        <v>0.002908522231223317</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01677342111374853</v>
+        <v>0.0155569376894638</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5771</v>
+        <v>6096</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001475417902033362</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008366344740199016</v>
+        <v>0.008838668205096375</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1220,19 +1220,19 @@
         <v>5872</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2137</v>
+        <v>2106</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12192</v>
+        <v>11768</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004420027876250241</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001608466702291604</v>
+        <v>0.00158515004553173</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009177776718890774</v>
+        <v>0.008858498139672433</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>633814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>627955</v>
+        <v>628732</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>636896</v>
+        <v>636810</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9923998705113038</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9832265788862515</v>
+        <v>0.9844430623105364</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9972261559160166</v>
+        <v>0.9970914777687767</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>657</v>
@@ -1270,7 +1270,7 @@
         <v>688726</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>683973</v>
+        <v>683648</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>689744</v>
@@ -1279,7 +1279,7 @@
         <v>0.9985245820979667</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9916336552598009</v>
+        <v>0.9911613317949036</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>1322540</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1316220</v>
+        <v>1316644</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1326275</v>
+        <v>1326306</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9955799721237497</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9908222232811081</v>
+        <v>0.9911415018603275</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9983915332977082</v>
+        <v>0.9984148499544682</v>
       </c>
     </row>
     <row r="12">
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6838</v>
+        <v>5874</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002273874900256649</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01326133434851703</v>
+        <v>0.01139076051838765</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6582</v>
+        <v>7022</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001133086398720792</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.006360968430082383</v>
+        <v>0.006785526116396554</v>
       </c>
     </row>
     <row r="14">
@@ -1471,7 +1471,7 @@
         <v>514469</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>508804</v>
+        <v>509768</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>515642</v>
@@ -1480,7 +1480,7 @@
         <v>0.9977261250997433</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9867386656514832</v>
+        <v>0.9886092394816124</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>1033616</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1028207</v>
+        <v>1027767</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>1034789</v>
@@ -1501,7 +1501,7 @@
         <v>0.9988669136012792</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9936390315699171</v>
+        <v>0.9932144738836035</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1596,19 +1596,19 @@
         <v>7183</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2817</v>
+        <v>2847</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14801</v>
+        <v>14719</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01857576896713373</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007285563186144901</v>
+        <v>0.007361150475353282</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03827289167754343</v>
+        <v>0.03806135058588943</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5171</v>
+        <v>4154</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002550335505575362</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01280104683995501</v>
+        <v>0.01028255416113134</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1638,19 +1638,19 @@
         <v>8214</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3679</v>
+        <v>3896</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15951</v>
+        <v>16674</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01038798211904333</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00465300552572957</v>
+        <v>0.004927265273591478</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02017347887608922</v>
+        <v>0.02108757783784898</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>379527</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>371909</v>
+        <v>371991</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>383893</v>
+        <v>383863</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9814242310328662</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9617271083224568</v>
+        <v>0.9619386494141108</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9927144368138552</v>
+        <v>0.9926388495246469</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>395</v>
@@ -1688,7 +1688,7 @@
         <v>402956</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>398815</v>
+        <v>399832</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>403986</v>
@@ -1697,7 +1697,7 @@
         <v>0.9974496644944246</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9871989531600449</v>
+        <v>0.9897174458388687</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1709,19 +1709,19 @@
         <v>782482</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>774745</v>
+        <v>774022</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>787017</v>
+        <v>786800</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9896120178809567</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9798265211239108</v>
+        <v>0.9789124221621501</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9953469944742704</v>
+        <v>0.9950727347264086</v>
       </c>
     </row>
     <row r="18">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4130</v>
+        <v>5084</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004796825580937751</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01967719410746654</v>
+        <v>0.02422248479788616</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5448</v>
+        <v>5067</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001851395439818807</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01001818344269801</v>
+        <v>0.009317972004863079</v>
       </c>
     </row>
     <row r="23">
@@ -2045,7 +2045,7 @@
         <v>208876</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>205753</v>
+        <v>204799</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>209883</v>
@@ -2054,7 +2054,7 @@
         <v>0.9952031744190623</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9803228058925335</v>
+        <v>0.9757775152021139</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2079,7 +2079,7 @@
         <v>542784</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>538343</v>
+        <v>538724</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>543791</v>
@@ -2088,7 +2088,7 @@
         <v>0.9981486045601812</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9899818165573031</v>
+        <v>0.9906820279951369</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2183,19 +2183,19 @@
         <v>25639</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17048</v>
+        <v>17199</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37380</v>
+        <v>38128</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007824928598742811</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005202995085618597</v>
+        <v>0.005249252012981832</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01140851388089124</v>
+        <v>0.01163662743468987</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2204,19 +2204,19 @@
         <v>9289</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4237</v>
+        <v>4364</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17685</v>
+        <v>18151</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002748785841692997</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001253897057115723</v>
+        <v>0.001291286998514182</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.005233451838633942</v>
+        <v>0.005371314625151636</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>33</v>
@@ -2225,19 +2225,19 @@
         <v>34927</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24790</v>
+        <v>24826</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>48921</v>
+        <v>47462</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005247711592209641</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003724589368747743</v>
+        <v>0.003730046232927104</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.00735024235989293</v>
+        <v>0.007130935617490323</v>
       </c>
     </row>
     <row r="26">
@@ -2254,19 +2254,19 @@
         <v>3250904</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3239163</v>
+        <v>3238415</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3259495</v>
+        <v>3259344</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9921750714012572</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9885914861191086</v>
+        <v>0.98836337256531</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9947970049143814</v>
+        <v>0.9947507479870181</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3289</v>
@@ -2275,19 +2275,19 @@
         <v>3369908</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3361512</v>
+        <v>3361046</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3374960</v>
+        <v>3374833</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.997251214158307</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9947665481613661</v>
+        <v>0.9946286853748501</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9987461029428844</v>
+        <v>0.9987087130014859</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6478</v>
@@ -2296,19 +2296,19 @@
         <v>6620814</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6606820</v>
+        <v>6608279</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6630951</v>
+        <v>6630915</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9947522884077904</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9926497576401071</v>
+        <v>0.9928690643825095</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9962754106312522</v>
+        <v>0.9962699537670728</v>
       </c>
     </row>
     <row r="27">
@@ -2643,19 +2643,19 @@
         <v>14323</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8457</v>
+        <v>8723</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24553</v>
+        <v>23127</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03153735515051415</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01862166996549589</v>
+        <v>0.01920783893823178</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05406417481027433</v>
+        <v>0.05092450368437752</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2664,19 +2664,19 @@
         <v>4123</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9448</v>
+        <v>10350</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009582206312607013</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002345248565185588</v>
+        <v>0.002325352246663232</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02196086195443966</v>
+        <v>0.02405791960576683</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2685,19 +2685,19 @@
         <v>18445</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11938</v>
+        <v>12069</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27704</v>
+        <v>28475</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02085664937678989</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01349886542233588</v>
+        <v>0.01364655577248776</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0313265725370644</v>
+        <v>0.03219772985661992</v>
       </c>
     </row>
     <row r="5">
@@ -2714,19 +2714,19 @@
         <v>439823</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>429593</v>
+        <v>431019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>445689</v>
+        <v>445423</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9684626448494859</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9459358251897256</v>
+        <v>0.9490754963156232</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.981378330034504</v>
+        <v>0.9807921610617683</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>417</v>
@@ -2735,19 +2735,19 @@
         <v>426107</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>420782</v>
+        <v>419880</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>429221</v>
+        <v>429230</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.990417793687393</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9780391380455605</v>
+        <v>0.9759420803942332</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9976547514348144</v>
+        <v>0.9976746477533368</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>848</v>
@@ -2756,19 +2756,19 @@
         <v>865931</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>856672</v>
+        <v>855901</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>872438</v>
+        <v>872307</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9791433506232101</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9686734274629357</v>
+        <v>0.9678022701433802</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9865011345776643</v>
+        <v>0.9863534442275123</v>
       </c>
     </row>
     <row r="6">
@@ -2860,19 +2860,19 @@
         <v>14421</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8189</v>
+        <v>8140</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23445</v>
+        <v>23050</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02098889424638394</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01191888606229596</v>
+        <v>0.01184764738364704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03412172031759433</v>
+        <v>0.0335471771960469</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2894,19 +2894,19 @@
         <v>14421</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8059</v>
+        <v>8543</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23547</v>
+        <v>24383</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01111595264104349</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006212295689515188</v>
+        <v>0.006584634605068308</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01814980800156972</v>
+        <v>0.01879481332966129</v>
       </c>
     </row>
     <row r="8">
@@ -2923,19 +2923,19 @@
         <v>672666</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>663642</v>
+        <v>664037</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>678898</v>
+        <v>678947</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9790111057536161</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9658782796824059</v>
+        <v>0.9664528228039531</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9880811139377048</v>
+        <v>0.9881523526163529</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>571</v>
@@ -2957,19 +2957,19 @@
         <v>1282921</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1273795</v>
+        <v>1272959</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1289283</v>
+        <v>1288799</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9888840473589565</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9818501919984305</v>
+        <v>0.9812051866703387</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9937877043104849</v>
+        <v>0.9934153653949317</v>
       </c>
     </row>
     <row r="9">
@@ -3061,19 +3061,19 @@
         <v>13152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7053</v>
+        <v>7504</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21858</v>
+        <v>22354</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01928877215408443</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01034427607934492</v>
+        <v>0.01100504394817377</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03205683727688952</v>
+        <v>0.03278330851850943</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3095,19 +3095,19 @@
         <v>13152</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7435</v>
+        <v>6931</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22248</v>
+        <v>21741</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009443654179003601</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00533878464065065</v>
+        <v>0.004976715619775643</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01597492946666698</v>
+        <v>0.01561068842450295</v>
       </c>
     </row>
     <row r="11">
@@ -3124,19 +3124,19 @@
         <v>668711</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>660005</v>
+        <v>659509</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>674810</v>
+        <v>674359</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9807112278459156</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9679431627231104</v>
+        <v>0.9672166914814906</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.989655723920655</v>
+        <v>0.9889949560518265</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>667</v>
@@ -3158,19 +3158,19 @@
         <v>1379560</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1370464</v>
+        <v>1370971</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1385277</v>
+        <v>1385781</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9905563458209964</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9840250705333328</v>
+        <v>0.9843893115754971</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9946612153593493</v>
+        <v>0.9950232843802247</v>
       </c>
     </row>
     <row r="12">
@@ -3262,19 +3262,19 @@
         <v>12660</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6422</v>
+        <v>6067</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23765</v>
+        <v>23576</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02059753487504454</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01044842768596698</v>
+        <v>0.009871219623320319</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03866578555558023</v>
+        <v>0.03835823872978002</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3296,19 +3296,19 @@
         <v>12660</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6196</v>
+        <v>6124</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24382</v>
+        <v>24676</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0102855266382119</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005033997630587905</v>
+        <v>0.004975375644989517</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01980944466484695</v>
+        <v>0.0200485544012875</v>
       </c>
     </row>
     <row r="14">
@@ -3325,19 +3325,19 @@
         <v>601957</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>590852</v>
+        <v>591041</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>608195</v>
+        <v>608550</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9794024651249554</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9613342144444202</v>
+        <v>0.9616417612702197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9895515723140331</v>
+        <v>0.9901287803766796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>539</v>
@@ -3359,19 +3359,19 @@
         <v>1218156</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1206434</v>
+        <v>1206140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1224620</v>
+        <v>1224692</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9897144733617881</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9801905553351508</v>
+        <v>0.9799514455987098</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9949660023694118</v>
+        <v>0.99502462435501</v>
       </c>
     </row>
     <row r="15">
@@ -3463,19 +3463,19 @@
         <v>4020</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13165</v>
+        <v>11713</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009362361468456279</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001898633478857745</v>
+        <v>0.001926148736335701</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03065777992834587</v>
+        <v>0.02727501136437678</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5088</v>
+        <v>4634</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002236755671080418</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01136178290161704</v>
+        <v>0.01034933345643466</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -3505,19 +3505,19 @@
         <v>5022</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1641</v>
+        <v>1012</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13678</v>
+        <v>13178</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005724946729256281</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001870628466297292</v>
+        <v>0.00115318624367106</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01559240082023459</v>
+        <v>0.01502270812552475</v>
       </c>
     </row>
     <row r="17">
@@ -3534,19 +3534,19 @@
         <v>425409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>416264</v>
+        <v>417716</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>428614</v>
+        <v>428602</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9906376385315437</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9693422200716538</v>
+        <v>0.9727249886356233</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9981013665211422</v>
+        <v>0.9980738512636643</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>405</v>
@@ -3555,7 +3555,7 @@
         <v>446798</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>442712</v>
+        <v>443166</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>447800</v>
@@ -3564,7 +3564,7 @@
         <v>0.9977632443289196</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.988638217098383</v>
+        <v>0.9896506665435656</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3576,19 +3576,19 @@
         <v>872207</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>863551</v>
+        <v>864051</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>875588</v>
+        <v>876217</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9942750532707437</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9844075991797657</v>
+        <v>0.9849772918744752</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9981293715337027</v>
+        <v>0.9988468137563289</v>
       </c>
     </row>
     <row r="18">
@@ -3680,19 +3680,19 @@
         <v>4956</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1922</v>
+        <v>1871</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13720</v>
+        <v>13100</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01599822118995958</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006202906184067056</v>
+        <v>0.006039563231941107</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0442880405231277</v>
+        <v>0.0422859657853417</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>4956</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1016</v>
+        <v>1877</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11915</v>
+        <v>13002</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007466346639325753</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001530637014988451</v>
+        <v>0.002828346439637774</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01794974858579945</v>
+        <v>0.01958716621096211</v>
       </c>
     </row>
     <row r="20">
@@ -3743,19 +3743,19 @@
         <v>304830</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>296066</v>
+        <v>296686</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>307864</v>
+        <v>307915</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9840017788100404</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9557119594768725</v>
+        <v>0.9577140342146583</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.993797093815933</v>
+        <v>0.9939604367680589</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>344</v>
@@ -3777,19 +3777,19 @@
         <v>658826</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>651867</v>
+        <v>650780</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>662766</v>
+        <v>661905</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9925336533606742</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9820502514142005</v>
+        <v>0.9804128337890378</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9984693629850115</v>
+        <v>0.9971716535603622</v>
       </c>
     </row>
     <row r="21">
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11975</v>
+        <v>11114</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009179897343699806</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04792738108874615</v>
+        <v>0.04448154330896031</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11481</v>
+        <v>11376</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003590322496617104</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01797201000046942</v>
+        <v>0.01780771962454498</v>
       </c>
     </row>
     <row r="23">
@@ -3944,7 +3944,7 @@
         <v>247557</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>237876</v>
+        <v>238737</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>249851</v>
@@ -3953,7 +3953,7 @@
         <v>0.9908201026563002</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9520726189112544</v>
+        <v>0.9555184566910396</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -3978,7 +3978,7 @@
         <v>636536</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>627349</v>
+        <v>627454</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>638830</v>
@@ -3987,7 +3987,7 @@
         <v>0.9964096775033829</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9820279899995306</v>
+        <v>0.982192280375455</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -4082,19 +4082,19 @@
         <v>65826</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49996</v>
+        <v>50498</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>85140</v>
+        <v>84929</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01920922225190768</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01458988868132487</v>
+        <v>0.01473616618785992</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02484559453478931</v>
+        <v>0.02478404426168417</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -4103,19 +4103,19 @@
         <v>5124</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12342</v>
+        <v>11262</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.001440058127778784</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0005601107140409108</v>
+        <v>0.0005611104118137482</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.003468477009389347</v>
+        <v>0.003165040112038954</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>66</v>
@@ -4124,19 +4124,19 @@
         <v>70950</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54902</v>
+        <v>53497</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93528</v>
+        <v>90857</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01015734220939642</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007859928362435972</v>
+        <v>0.007658755628866626</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01338966741313569</v>
+        <v>0.01300722602667501</v>
       </c>
     </row>
     <row r="26">
@@ -4153,19 +4153,19 @@
         <v>3360953</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3341639</v>
+        <v>3341850</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3376783</v>
+        <v>3376281</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9807907777480923</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9751544054652108</v>
+        <v>0.975215955738316</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9854101113186752</v>
+        <v>0.9852638338121401</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3293</v>
@@ -4174,19 +4174,19 @@
         <v>3553185</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3545967</v>
+        <v>3547047</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3556316</v>
+        <v>3556312</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9985599418722212</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9965315229906108</v>
+        <v>0.996834959887961</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9994398892859592</v>
+        <v>0.9994388895881863</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6441</v>
@@ -4195,19 +4195,19 @@
         <v>6914138</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6891560</v>
+        <v>6894231</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6930186</v>
+        <v>6931591</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9898426577906035</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9866103325868643</v>
+        <v>0.986992773973325</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9921400716375637</v>
+        <v>0.9923412443711332</v>
       </c>
     </row>
     <row r="27">
@@ -4542,19 +4542,19 @@
         <v>5686</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2075</v>
+        <v>2084</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13361</v>
+        <v>12575</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01355437026188291</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004947889566753814</v>
+        <v>0.004967547925237157</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03185235715985679</v>
+        <v>0.02997780038928385</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4563,19 +4563,19 @@
         <v>3010</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7893</v>
+        <v>8317</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007605366013826876</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002377042084398022</v>
+        <v>0.002374504122826569</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01994365089660535</v>
+        <v>0.02101494737790074</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -4584,19 +4584,19 @@
         <v>8695</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4180</v>
+        <v>4142</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17204</v>
+        <v>16896</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01066637197239782</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005128057545481872</v>
+        <v>0.00508140187379036</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02110328218512179</v>
+        <v>0.0207259000412859</v>
       </c>
     </row>
     <row r="5">
@@ -4613,19 +4613,19 @@
         <v>413777</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>406102</v>
+        <v>406888</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>417388</v>
+        <v>417379</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9864456297381171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9681476428401423</v>
+        <v>0.9700221996107162</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9950521104332463</v>
+        <v>0.9950324520747629</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>401</v>
@@ -4634,19 +4634,19 @@
         <v>392745</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>387862</v>
+        <v>387438</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>394814</v>
+        <v>394815</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9923946339861731</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9800563491033947</v>
+        <v>0.9789850526220992</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.997622957915602</v>
+        <v>0.9976254958771735</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>789</v>
@@ -4655,19 +4655,19 @@
         <v>806523</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>798014</v>
+        <v>798322</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>811038</v>
+        <v>811076</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9893336280276022</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9788967178148782</v>
+        <v>0.9792740999587142</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9948719424545182</v>
+        <v>0.9949185981262096</v>
       </c>
     </row>
     <row r="6">
@@ -4759,19 +4759,19 @@
         <v>14489</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7760</v>
+        <v>8302</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22195</v>
+        <v>23048</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02453720584476598</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01314139655826829</v>
+        <v>0.01405924604200451</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03758696631600938</v>
+        <v>0.03903162532802034</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4780,19 +4780,19 @@
         <v>4784</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1834</v>
+        <v>1907</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9780</v>
+        <v>11179</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008488614203650355</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003254283250225937</v>
+        <v>0.003384392689038776</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01735451020570675</v>
+        <v>0.01983694993789656</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -4801,19 +4801,19 @@
         <v>19273</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12071</v>
+        <v>11297</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28322</v>
+        <v>29190</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01670031728190471</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0104599528914834</v>
+        <v>0.009788695185849712</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02454144622074332</v>
+        <v>0.02529344812270431</v>
       </c>
     </row>
     <row r="8">
@@ -4830,19 +4830,19 @@
         <v>576007</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>568301</v>
+        <v>567448</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>582736</v>
+        <v>582194</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9754627941552341</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9624130336839907</v>
+        <v>0.9609683746719797</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9868586034417318</v>
+        <v>0.9859407539579954</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>574</v>
@@ -4851,19 +4851,19 @@
         <v>558760</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>553764</v>
+        <v>552365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>561710</v>
+        <v>561637</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9915113857963497</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9826454897942933</v>
+        <v>0.9801630500621051</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9967457167497741</v>
+        <v>0.9966156073109612</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1127</v>
@@ -4872,19 +4872,19 @@
         <v>1134767</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1125718</v>
+        <v>1124850</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1141969</v>
+        <v>1142743</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9832996827180953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9754585537792567</v>
+        <v>0.9747065518772957</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9895400471085166</v>
+        <v>0.9902113048141503</v>
       </c>
     </row>
     <row r="9">
@@ -4976,19 +4976,19 @@
         <v>8032</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3858</v>
+        <v>3747</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14645</v>
+        <v>15381</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01200349322934128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005766591641478242</v>
+        <v>0.005600076612404745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02188723615432967</v>
+        <v>0.0229880640314758</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5280</v>
+        <v>6353</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002667549785382878</v>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007983623390179918</v>
+        <v>0.009605986820377154</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -5018,19 +5018,19 @@
         <v>9796</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4824</v>
+        <v>5120</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17830</v>
+        <v>17436</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007362573323593948</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003625827518354987</v>
+        <v>0.003848519952873019</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01340083159627037</v>
+        <v>0.01310495166874705</v>
       </c>
     </row>
     <row r="11">
@@ -5047,19 +5047,19 @@
         <v>661065</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>654452</v>
+        <v>653716</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>665239</v>
+        <v>665350</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9879965067706588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9781127638456704</v>
+        <v>0.9770119359685248</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9942334083585217</v>
+        <v>0.9943999233875954</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>663</v>
@@ -5068,7 +5068,7 @@
         <v>659622</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>656106</v>
+        <v>655033</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>661386</v>
@@ -5077,7 +5077,7 @@
         <v>0.9973324502146171</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9920163766098201</v>
+        <v>0.9903940131796228</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -5089,19 +5089,19 @@
         <v>1320687</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1312653</v>
+        <v>1313047</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1325659</v>
+        <v>1325363</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9926374266764061</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9865991684037296</v>
+        <v>0.986895048331253</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9963741724816449</v>
+        <v>0.9961514800471271</v>
       </c>
     </row>
     <row r="12">
@@ -5193,19 +5193,19 @@
         <v>10100</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4354</v>
+        <v>4948</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19297</v>
+        <v>19849</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01563335684390711</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006738907422508993</v>
+        <v>0.00765867199131961</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02986874291955333</v>
+        <v>0.03072403658651847</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -5214,19 +5214,19 @@
         <v>3328</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8991</v>
+        <v>9897</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005127561300215629</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001691579336265029</v>
+        <v>0.00169511085247041</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01385241366818861</v>
+        <v>0.01524798643558254</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -5235,19 +5235,19 @@
         <v>13428</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6970</v>
+        <v>6845</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24229</v>
+        <v>22818</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01036817520926316</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00538195430596354</v>
+        <v>0.005285335316300636</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01870792117653974</v>
+        <v>0.01761824895621549</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5264,19 @@
         <v>635948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>626751</v>
+        <v>626199</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>641694</v>
+        <v>641100</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9843666431560929</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9701312570804465</v>
+        <v>0.9692759634134819</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9932610925774906</v>
+        <v>0.9923413280086808</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>599</v>
@@ -5285,19 +5285,19 @@
         <v>645749</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>640086</v>
+        <v>639180</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>647979</v>
+        <v>647977</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9948724386997844</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9861475863318113</v>
+        <v>0.9847520135644174</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9983084206637349</v>
+        <v>0.9983048891475296</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1173</v>
@@ -5306,19 +5306,19 @@
         <v>1281697</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1270896</v>
+        <v>1272307</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1288155</v>
+        <v>1288280</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9896318247907369</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9812920788234603</v>
+        <v>0.9823817510437848</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9946180456940366</v>
+        <v>0.9947146646836994</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         <v>8602</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3413</v>
+        <v>4130</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17232</v>
+        <v>17913</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01799831436493526</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007142227611985305</v>
+        <v>0.008642624188926376</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03605736398021119</v>
+        <v>0.03748158671467425</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10553</v>
+        <v>10659</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005893801407008933</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02124079503790266</v>
+        <v>0.02145296711831406</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -5452,19 +5452,19 @@
         <v>11530</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5654</v>
+        <v>5587</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21862</v>
+        <v>21469</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01182851668375379</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00580035418846746</v>
+        <v>0.005731746901297689</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0224281746972527</v>
+        <v>0.02202515085898174</v>
       </c>
     </row>
     <row r="17">
@@ -5481,19 +5481,19 @@
         <v>469316</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>460686</v>
+        <v>460005</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>474505</v>
+        <v>473788</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9820016856350647</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9639426360197892</v>
+        <v>0.9625184132853263</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9928577723880146</v>
+        <v>0.9913573758110736</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>431</v>
@@ -5502,7 +5502,7 @@
         <v>493921</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>486296</v>
+        <v>486190</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>496849</v>
@@ -5511,7 +5511,7 @@
         <v>0.9941061985929911</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.978759204962097</v>
+        <v>0.9785470328816859</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -5523,19 +5523,19 @@
         <v>963237</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>952905</v>
+        <v>953298</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>969113</v>
+        <v>969180</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9881714833162462</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9775718253027476</v>
+        <v>0.9779748491410183</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9941996458115325</v>
+        <v>0.9942682530987023</v>
       </c>
     </row>
     <row r="18">
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5892</v>
+        <v>4826</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002872904344999366</v>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01762237543228485</v>
+        <v>0.01443358746095425</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5347</v>
+        <v>5393</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002842127955481847</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01415424991521701</v>
+        <v>0.01427580889586986</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6960</v>
+        <v>7146</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002856577591560067</v>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.009773700678594467</v>
+        <v>0.01003539424843514</v>
       </c>
     </row>
     <row r="20">
@@ -5698,7 +5698,7 @@
         <v>333370</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>328438</v>
+        <v>329504</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>334330</v>
@@ -5707,7 +5707,7 @@
         <v>0.9971270956550007</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9823776245677147</v>
+        <v>0.9855664125390458</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5719,7 +5719,7 @@
         <v>376688</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>372415</v>
+        <v>372369</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>377762</v>
@@ -5728,7 +5728,7 @@
         <v>0.9971578720445181</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.985845750084783</v>
+        <v>0.9857241911041301</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -5740,7 +5740,7 @@
         <v>710058</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>705132</v>
+        <v>704946</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>712092</v>
@@ -5749,7 +5749,7 @@
         <v>0.9971434224084399</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9902262993214062</v>
+        <v>0.9899646057515649</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5251</v>
+        <v>4911</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003548045625365132</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02043160177101871</v>
+        <v>0.01910987663600567</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5133</v>
+        <v>5287</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00138753259478725</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007811095346536793</v>
+        <v>0.008044992273115122</v>
       </c>
     </row>
     <row r="23">
@@ -5907,7 +5907,7 @@
         <v>256086</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>251747</v>
+        <v>252087</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>256998</v>
@@ -5916,7 +5916,7 @@
         <v>0.9964519543746349</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9795683982289822</v>
+        <v>0.9808901233639988</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -5941,7 +5941,7 @@
         <v>656255</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>652034</v>
+        <v>651880</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>657167</v>
@@ -5950,7 +5950,7 @@
         <v>0.9986124674052127</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9921889046534619</v>
+        <v>0.9919550077268849</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -6045,19 +6045,19 @@
         <v>48780</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37361</v>
+        <v>35714</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>65091</v>
+        <v>65515</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01437098165460728</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01100668276237278</v>
+        <v>0.01052146857952955</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01917639135806484</v>
+        <v>0.01930128611607264</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -6066,19 +6066,19 @@
         <v>16888</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10365</v>
+        <v>10137</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26822</v>
+        <v>26875</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004764510512152104</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002924139433460672</v>
+        <v>0.002859876747790308</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.007567139068040416</v>
+        <v>0.007582154417295484</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>60</v>
@@ -6087,19 +6087,19 @@
         <v>65668</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50393</v>
+        <v>51636</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>84118</v>
+        <v>84103</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009463780512459309</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007262377197038893</v>
+        <v>0.007441595248495876</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01212264244503155</v>
+        <v>0.0121205847405442</v>
       </c>
     </row>
     <row r="26">
@@ -6116,19 +6116,19 @@
         <v>3345570</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3329259</v>
+        <v>3328835</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3356989</v>
+        <v>3358636</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9856290183453927</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9808236086419353</v>
+        <v>0.980698713883927</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9889933172376272</v>
+        <v>0.9894785314204703</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3322</v>
@@ -6137,19 +6137,19 @@
         <v>3527654</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3517720</v>
+        <v>3517667</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3534177</v>
+        <v>3534405</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9952354894878479</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9924328609319597</v>
+        <v>0.992417845582704</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9970758605665394</v>
+        <v>0.9971401232522097</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6509</v>
@@ -6158,19 +6158,19 @@
         <v>6873224</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6854774</v>
+        <v>6854789</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6888499</v>
+        <v>6887256</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9905362194875407</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9878773575549683</v>
+        <v>0.9878794152594558</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9927376228029611</v>
+        <v>0.9925584047515041</v>
       </c>
     </row>
     <row r="27">
@@ -6508,16 +6508,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9610</v>
+        <v>9575</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.009944405468207417</v>
+        <v>0.009944405468207414</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05780559983496361</v>
+        <v>0.05759923478262921</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6526,19 +6526,19 @@
         <v>6178</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1699</v>
+        <v>1676</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16299</v>
+        <v>16579</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05566012133941105</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01530820865086297</v>
+        <v>0.01509830440491464</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1468436888567818</v>
+        <v>0.1493632794926332</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6547,19 +6547,19 @@
         <v>7831</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2226</v>
+        <v>1787</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18673</v>
+        <v>18847</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02824718042627989</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008030150483226176</v>
+        <v>0.006446196691453004</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06735269111722876</v>
+        <v>0.06798088945995792</v>
       </c>
     </row>
     <row r="5">
@@ -6576,7 +6576,7 @@
         <v>164590</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>156633</v>
+        <v>156668</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>166243</v>
@@ -6585,7 +6585,7 @@
         <v>0.9900555945317926</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9421944001650401</v>
+        <v>0.9424007652173709</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6597,19 +6597,19 @@
         <v>104817</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94696</v>
+        <v>94416</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>109296</v>
+        <v>109319</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9443398786605889</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8531563111432183</v>
+        <v>0.8506367205073667</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9846917913491372</v>
+        <v>0.9849016955950853</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>132</v>
@@ -6618,19 +6618,19 @@
         <v>269407</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>258565</v>
+        <v>258391</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>275012</v>
+        <v>275451</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9717528195737202</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9326473088827704</v>
+        <v>0.9320191105400422</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9919698495167738</v>
+        <v>0.9935538033085471</v>
       </c>
     </row>
     <row r="6">
@@ -6722,19 +6722,19 @@
         <v>7996</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2855</v>
+        <v>2753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18587</v>
+        <v>18058</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03205133078367482</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0114439578532279</v>
+        <v>0.01103693514804314</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07450623015373362</v>
+        <v>0.07238833971086554</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5195</v>
+        <v>4841</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005682502839921909</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0342863525374462</v>
+        <v>0.03195055169793905</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -6764,19 +6764,19 @@
         <v>8857</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3420</v>
+        <v>3570</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19874</v>
+        <v>19472</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02208780802844333</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008528341663932688</v>
+        <v>0.008903445410199677</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04956575614613417</v>
+        <v>0.04856210848654953</v>
       </c>
     </row>
     <row r="8">
@@ -6793,19 +6793,19 @@
         <v>241468</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>230877</v>
+        <v>231406</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>246609</v>
+        <v>246711</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9679486692163253</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9254937698462664</v>
+        <v>0.9276116602891333</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.988556042146772</v>
+        <v>0.9889630648519566</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>139</v>
@@ -6814,16 +6814,16 @@
         <v>150647</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>146313</v>
+        <v>146667</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>151508</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.994317497160078</v>
+        <v>0.9943174971600782</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9657136474625536</v>
+        <v>0.9680494483020622</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -6835,19 +6835,19 @@
         <v>392115</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>381098</v>
+        <v>381500</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>397552</v>
+        <v>397402</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9779121919715567</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.950434243853866</v>
+        <v>0.9514378915134515</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9914716583360677</v>
+        <v>0.9910965545898005</v>
       </c>
     </row>
     <row r="9">
@@ -6939,19 +6939,19 @@
         <v>5727</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2245</v>
+        <v>2266</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12493</v>
+        <v>13263</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01837801474128132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007204808576302494</v>
+        <v>0.00727217806382479</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04008697660582904</v>
+        <v>0.04255812950940368</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -6963,16 +6963,16 @@
         <v>470</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6581</v>
+        <v>5749</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01234100684332727</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002775837469394574</v>
+        <v>0.00277745603280128</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03890616084905761</v>
+        <v>0.03398802038261876</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -6981,19 +6981,19 @@
         <v>7815</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3228</v>
+        <v>3554</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14237</v>
+        <v>15365</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01625411660429005</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006713313395721001</v>
+        <v>0.007392121838096867</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02961101560911965</v>
+        <v>0.03195858572168876</v>
       </c>
     </row>
     <row r="11">
@@ -7010,19 +7010,19 @@
         <v>305916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>299150</v>
+        <v>298380</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>309398</v>
+        <v>309377</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9816219852587185</v>
+        <v>0.9816219852587187</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.959913023394171</v>
+        <v>0.9574418704905957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9927951914236974</v>
+        <v>0.9927278219361751</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>225</v>
@@ -7031,7 +7031,7 @@
         <v>167062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162568</v>
+        <v>163400</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>168679</v>
@@ -7040,10 +7040,10 @@
         <v>0.9876589931566727</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9610938391509424</v>
+        <v>0.9660119796173812</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972241625306054</v>
+        <v>0.9972225439671988</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>489</v>
@@ -7052,19 +7052,19 @@
         <v>472976</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>466554</v>
+        <v>465426</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>477563</v>
+        <v>477237</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.98374588339571</v>
+        <v>0.9837458833957099</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9703889843908805</v>
+        <v>0.9680414142783114</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9932866866042789</v>
+        <v>0.9926078781619032</v>
       </c>
     </row>
     <row r="12">
@@ -7156,19 +7156,19 @@
         <v>6910</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2713</v>
+        <v>2864</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13663</v>
+        <v>15495</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0197569534538872</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007755999071473758</v>
+        <v>0.008187640775964814</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03906394153138389</v>
+        <v>0.0443013053634236</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -7177,19 +7177,19 @@
         <v>2819</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7803</v>
+        <v>6580</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01357240290783925</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003433158747906036</v>
+        <v>0.003442263333347412</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03756843684370634</v>
+        <v>0.03168113277687732</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -7198,19 +7198,19 @@
         <v>9729</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5056</v>
+        <v>5081</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17477</v>
+        <v>16191</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01745270785591103</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009070551330261771</v>
+        <v>0.009113891950934382</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03135138919129196</v>
+        <v>0.02904377730248301</v>
       </c>
     </row>
     <row r="14">
@@ -7227,19 +7227,19 @@
         <v>342849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>336096</v>
+        <v>334264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>347046</v>
+        <v>346895</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9802430465461125</v>
+        <v>0.9802430465461128</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9609360584686176</v>
+        <v>0.9556986946365764</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9922440009285263</v>
+        <v>0.9918123592240352</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>313</v>
@@ -7248,19 +7248,19 @@
         <v>204879</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>199895</v>
+        <v>201118</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>206985</v>
+        <v>206983</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9864275970921607</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9624315631562935</v>
+        <v>0.9683188672231227</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9965668412520938</v>
+        <v>0.9965577366666526</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>637</v>
@@ -7269,19 +7269,19 @@
         <v>547728</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>539980</v>
+        <v>541266</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>552401</v>
+        <v>552376</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.982547292144089</v>
+        <v>0.9825472921440892</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9686486108087079</v>
+        <v>0.9709562226975174</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9909294486697382</v>
+        <v>0.9908861080490659</v>
       </c>
     </row>
     <row r="15">
@@ -7373,19 +7373,19 @@
         <v>11601</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6135</v>
+        <v>6681</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18796</v>
+        <v>18573</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04152565879476401</v>
+        <v>0.041525658794764</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02195952084543952</v>
+        <v>0.02391702142050255</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0672832067433685</v>
+        <v>0.06648452783903785</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -7394,19 +7394,19 @@
         <v>3813</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1708</v>
+        <v>1742</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8093</v>
+        <v>7870</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02577335771387402</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01154269831559731</v>
+        <v>0.01177356409854914</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05469833428189042</v>
+        <v>0.05318860219400166</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -7415,19 +7415,19 @@
         <v>15414</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9643</v>
+        <v>9678</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23455</v>
+        <v>24022</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03607147259469917</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02256527614242486</v>
+        <v>0.02264800482485499</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05488783616235575</v>
+        <v>0.05621519068596179</v>
       </c>
     </row>
     <row r="17">
@@ -7444,19 +7444,19 @@
         <v>267760</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>260565</v>
+        <v>260788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>273226</v>
+        <v>272680</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.958474341205236</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9327167932566316</v>
+        <v>0.9335154721609621</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9780404791545604</v>
+        <v>0.9760829785794974</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>234</v>
@@ -7465,19 +7465,19 @@
         <v>144145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>139865</v>
+        <v>140088</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>146250</v>
+        <v>146216</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9742266422861261</v>
+        <v>0.9742266422861259</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9453016657181099</v>
+        <v>0.9468113978059982</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9884573016844028</v>
+        <v>0.9882264359014509</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>524</v>
@@ -7486,19 +7486,19 @@
         <v>411904</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>403863</v>
+        <v>403296</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>417675</v>
+        <v>417640</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9639285274053008</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9451121638376445</v>
+        <v>0.9437848093140383</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9774347238575752</v>
+        <v>0.9773519951751449</v>
       </c>
     </row>
     <row r="18">
@@ -7590,19 +7590,19 @@
         <v>4876</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2196</v>
+        <v>2074</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10153</v>
+        <v>9313</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02354693665868037</v>
+        <v>0.02354693665868038</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01060606564454016</v>
+        <v>0.01001349901861428</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04902488232438883</v>
+        <v>0.04497098649583131</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -7614,16 +7614,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2745</v>
+        <v>3044</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.005789705916873379</v>
+        <v>0.005789705916873378</v>
       </c>
       <c r="O19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03479662500032792</v>
+        <v>0.03858248075020036</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -7632,19 +7632,19 @@
         <v>5333</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2524</v>
+        <v>2441</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9913</v>
+        <v>9892</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01864815137059022</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00882595786053068</v>
+        <v>0.008534680698632878</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03466059616325139</v>
+        <v>0.03458991749038619</v>
       </c>
     </row>
     <row r="20">
@@ -7661,19 +7661,19 @@
         <v>202216</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>196939</v>
+        <v>197779</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>204896</v>
+        <v>205018</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9764530633413196</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9509751176756113</v>
+        <v>0.9550290135041686</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9893939343554599</v>
+        <v>0.9899865009813856</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>148</v>
@@ -7682,16 +7682,16 @@
         <v>78441</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76153</v>
+        <v>75854</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>78898</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9942102940831267</v>
+        <v>0.9942102940831264</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9652033749996728</v>
+        <v>0.9614175192497989</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -7703,19 +7703,19 @@
         <v>280657</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>276077</v>
+        <v>276098</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>283466</v>
+        <v>283549</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9813518486294099</v>
+        <v>0.9813518486294097</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9653394038367487</v>
+        <v>0.9654100825096142</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9911740421394692</v>
+        <v>0.9914653193013673</v>
       </c>
     </row>
     <row r="21">
@@ -7807,19 +7807,19 @@
         <v>2448</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5896</v>
+        <v>5866</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02230694350210351</v>
+        <v>0.02230694350210352</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005145866095676083</v>
+        <v>0.005079336985402896</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05372312672127518</v>
+        <v>0.05345249700088388</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2625</v>
+        <v>2245</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01431503182357895</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08716029031912108</v>
+        <v>0.07454761491199323</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -7849,19 +7849,19 @@
         <v>2879</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1091</v>
+        <v>1058</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6494</v>
+        <v>7202</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02058582023701907</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007801909588629565</v>
+        <v>0.007565680017354024</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04643048239882851</v>
+        <v>0.05149432368703061</v>
       </c>
     </row>
     <row r="23">
@@ -7878,19 +7878,19 @@
         <v>107293</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>103845</v>
+        <v>103875</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>109176</v>
+        <v>109184</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9776930564978964</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.946276873278725</v>
+        <v>0.9465475029991168</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.994854133904324</v>
+        <v>0.9949206630145971</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>52</v>
@@ -7899,7 +7899,7 @@
         <v>29689</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27495</v>
+        <v>27875</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>30120</v>
@@ -7908,7 +7908,7 @@
         <v>0.985684968176421</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9128397096808792</v>
+        <v>0.9254523850880068</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -7920,19 +7920,19 @@
         <v>136982</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>133367</v>
+        <v>132659</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>138770</v>
+        <v>138803</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9794141797629808</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9535695176011718</v>
+        <v>0.9485056763129674</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9921980904113705</v>
+        <v>0.992434319982646</v>
       </c>
     </row>
     <row r="24">
@@ -8024,19 +8024,19 @@
         <v>41211</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29127</v>
+        <v>29549</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55869</v>
+        <v>56021</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02462877741263587</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01740687539016688</v>
+        <v>0.01765908853092992</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03338830762963848</v>
+        <v>0.03347910747208128</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -8045,19 +8045,19 @@
         <v>16647</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9577</v>
+        <v>9562</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28066</v>
+        <v>26675</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.01857217496712687</v>
+        <v>0.01857217496712686</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0106850183987965</v>
+        <v>0.01066764722450474</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03131233246720073</v>
+        <v>0.02976064351388362</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -8066,19 +8066,19 @@
         <v>57858</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44530</v>
+        <v>43515</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>75575</v>
+        <v>75404</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02251614174435218</v>
+        <v>0.02251614174435219</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01732933819817283</v>
+        <v>0.01693423173424262</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02941075561889078</v>
+        <v>0.02934439611852979</v>
       </c>
     </row>
     <row r="26">
@@ -8095,19 +8095,19 @@
         <v>1632092</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1617434</v>
+        <v>1617282</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1644176</v>
+        <v>1643754</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.975371222587364</v>
+        <v>0.9753712225873641</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9666116923703619</v>
+        <v>0.966520892527919</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9825931246098332</v>
+        <v>0.9823409114690701</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1174</v>
@@ -8116,19 +8116,19 @@
         <v>879679</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>868260</v>
+        <v>869651</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>886749</v>
+        <v>886764</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.981427825032873</v>
+        <v>0.9814278250328731</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9686876675327992</v>
+        <v>0.9702393564861163</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9893149816012032</v>
+        <v>0.9893323527754954</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2712</v>
@@ -8137,19 +8137,19 @@
         <v>2511770</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2494053</v>
+        <v>2494224</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2525098</v>
+        <v>2526113</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9774838582556477</v>
+        <v>0.9774838582556478</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9705892443811093</v>
+        <v>0.9706556038814702</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9826706618018271</v>
+        <v>0.9830657682657574</v>
       </c>
     </row>
     <row r="27">
